--- a/Research/Xiaomei_Glyphosate_T1_runoff_final.xlsx
+++ b/Research/Xiaomei_Glyphosate_T1_runoff_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\moops\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB1807E-FC8E-4731-86A3-E3BFBC27AD6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3199002-E512-4F27-9D3D-9FBB8C1572CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="2" xr2:uid="{A053033E-1502-4B0B-A0CC-826F179C2ACF}"/>
   </bookViews>
@@ -11811,7 +11811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C56AB-3FB1-43C3-BCD5-416F1DDEF893}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
